--- a/Outputs_study1/WithinAnalysis_Human.xlsx
+++ b/Outputs_study1/WithinAnalysis_Human.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Nature human behavior\Final version\Data and Code\Outputs_study1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Scientific reports\Data and Code\Outputs_study1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE5A497-ACDD-4F8D-A953-855478023F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99AE1A-E67F-4C7D-A292-CB415B207F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>frame</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>ci_up</t>
+  </si>
+  <si>
+    <t>p_adj</t>
   </si>
   <si>
     <t>6 lives</t>
@@ -460,15 +463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="24.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,16 +496,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>-0.62255733852517803</v>
@@ -513,16 +522,19 @@
       <c r="G2">
         <v>-0.44092773067283503</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>0.73879678133642601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0.22948763975976499</v>
@@ -536,21 +548,24 @@
       <c r="G3">
         <v>0.43283545058115203</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>0.92080116715127303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>-2.7537852736430501</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>5.8910404602254803E-3</v>
       </c>
       <c r="F4">
@@ -559,16 +574,19 @@
       <c r="G4">
         <v>-2.56216444674966</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="1">
+        <v>2.6509682071014701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>-1.87707332177492</v>
@@ -582,21 +600,24 @@
       <c r="G5">
         <v>-1.6727812411630001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>0.121016090533018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>-3.1975412981387099</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>1.3860456287797501E-3</v>
       </c>
       <c r="F6">
@@ -605,21 +626,24 @@
       <c r="G6">
         <v>-3.0089383106658101</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="1">
+        <v>2.4948821318035601E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>-2.6085419111166099</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>9.0928876053111302E-3</v>
       </c>
       <c r="F7">
@@ -628,16 +652,19 @@
       <c r="G7">
         <v>-2.42070095903266</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="1">
+        <v>3.2734395379120103E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>-0.63205050123194595</v>
@@ -651,16 +678,19 @@
       <c r="G8">
         <v>-0.45314890232247801</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>0.73879678133642601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -674,21 +704,24 @@
       <c r="G9">
         <v>0.177406413072937</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>-2.9422861391697199</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>3.2579873310336601E-3</v>
       </c>
       <c r="F10">
@@ -697,16 +730,19 @@
       <c r="G10">
         <v>-2.7501313997706598</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="1">
+        <v>2.6509682071014701E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -720,16 +756,19 @@
       <c r="G11">
         <v>0.19204807564429899</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>-2.10141030613583</v>
@@ -743,21 +782,24 @@
       <c r="G12">
         <v>-1.8946586801949199</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12">
+        <v>9.1555621782598004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>-2.8181645023785502</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>4.8299057378755599E-3</v>
       </c>
       <c r="F13">
@@ -766,16 +808,19 @@
       <c r="G13">
         <v>-2.6148771237959298</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="1">
+        <v>2.6509682071014701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>-0.30869421068729902</v>
@@ -789,16 +834,19 @@
       <c r="G14">
         <v>-0.107017698959591</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14">
+        <v>0.90906497772052197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>-1.95180014589707</v>
@@ -812,16 +860,19 @@
       <c r="G15">
         <v>-1.7509636013707099</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15">
+        <v>0.11466435817746801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>0.49441323247304397</v>
@@ -835,16 +886,19 @@
       <c r="G16">
         <v>0.73466913225664598</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16">
+        <v>0.79844704799307997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>-0.69535402430771398</v>
@@ -858,16 +912,19 @@
       <c r="G17">
         <v>-0.46463775771450699</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17">
+        <v>0.73879678133642601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>-1.14772948352194</v>
@@ -881,21 +938,24 @@
       <c r="G18">
         <v>-0.92856095692618201</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18">
+        <v>0.45194446046770398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>-2.4224412666956701</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>1.5416617636017101E-2</v>
       </c>
       <c r="F19">
@@ -903,6 +963,9 @@
       </c>
       <c r="G19">
         <v>-2.2294848356195902</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.6249852908051302E-2</v>
       </c>
     </row>
   </sheetData>
